--- a/DATA_DIPA/DIPA_2023.xlsx
+++ b/DATA_DIPA/DIPA_2023.xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,22 +31,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00366092"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -69,8 +60,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
